--- a/df__sent_keywords.xlsx
+++ b/df__sent_keywords.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.204583927989006</v>
+        <v>0.204584077000618</v>
       </c>
       <c r="E2" t="n">
-        <v>0.683366596698761</v>
+        <v>0.6833662986755371</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1120494827628136</v>
+        <v>0.1120496094226837</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.006846868898719549</v>
+        <v>0.006846874486654997</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02540729008615017</v>
+        <v>0.02540731616318226</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9677459001541138</v>
+        <v>0.9677457809448242</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1891997456550598</v>
+        <v>0.1891998201608658</v>
       </c>
       <c r="E4" t="n">
-        <v>0.706817626953125</v>
+        <v>0.7068175077438354</v>
       </c>
       <c r="F4" t="n">
         <v>0.1039826199412346</v>
@@ -613,13 +613,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.1651309132575989</v>
+        <v>0.1651314795017242</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7906100153923035</v>
+        <v>0.79060959815979</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04425905644893646</v>
+        <v>0.04425900056958199</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -649,34 +649,34 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Very cool but costly stick vac</t>
+          <t xml:space="preserve"> Very cool </t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.02553435787558556</v>
+        <v>0.004153939429670572</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1461481600999832</v>
+        <v>0.04325298219919205</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8283174633979797</v>
+        <v>0.9525930881500244</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['costly stick vac']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>['stick vac', 'costly stick']</t>
+          <t>['cool']</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[('stick vac', 0.04940384002065631), ('costly stick', 0.09700399286574239)]</t>
+          <t>[('cool', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -689,34 +689,34 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Esthetically it's beautiful</t>
+          <t xml:space="preserve"> but costly stick vac</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.003440216649323702</v>
+        <v>0.1568013727664948</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03614332154393196</v>
+        <v>0.7439063787460327</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9604164958000183</v>
+        <v>0.09929224103689194</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['costly stick vac']</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>['Esthetically', 'beautiful']</t>
+          <t>['stick vac', 'costly stick']</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[('Esthetically', 0.15831692877998726), ('beautiful', 0.15831692877998726)]</t>
+          <t>[('stick vac', 0.04940384002065631), ('costly stick', 0.09700399286574239)]</t>
         </is>
       </c>
     </row>
@@ -729,34 +729,34 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  The auto empty feature is also awesome  but you really need additional suction to get anything done which uses up the battery quicker</t>
+          <t xml:space="preserve"> Esthetically it's beautiful</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.05378759652376175</v>
+        <v>0.003440221538767219</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2148570120334625</v>
+        <v>0.03614332899451256</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7313553690910339</v>
+        <v>0.9604164958000183</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['really need additional suction', 'get anything done', 'auto empty feature', 'battery quicker', 'also awesome']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>['battery quicker', 'auto empty', 'empty feature']</t>
+          <t>['Esthetically', 'beautiful']</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[('battery quicker', 0.015380821171891606), ('auto empty', 0.02570861714399338), ('empty feature', 0.02570861714399338)]</t>
+          <t>[('Esthetically', 0.15831692877998726), ('beautiful', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -769,21 +769,21 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Luckily it has 3 different suction options</t>
+          <t xml:space="preserve">  The auto empty feature is also awesome  </t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.01360551919788122</v>
+        <v>0.002916939090937376</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3255254328250885</v>
+        <v>0.0273886825889349</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6608690619468689</v>
+        <v>0.9696943759918213</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['3 different suction options']</t>
+          <t>['auto empty feature', 'also awesome']</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -791,12 +791,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>['suction options', 'Luckily']</t>
+          <t>['auto empty', 'empty feature']</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[('suction options', 0.04940384002065631), ('Luckily', 0.15831692877998726)]</t>
+          <t>[('auto empty', 0.09700399286574239), ('empty feature', 0.09700399286574239)]</t>
         </is>
       </c>
     </row>
@@ -809,34 +809,34 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> These could be asier to obtain but works well once you get there</t>
+          <t xml:space="preserve"> but you really need additional suction to get anything done which uses up the battery quicker</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.006838215515017509</v>
+        <v>0.5506799817085266</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1682273894548416</v>
+        <v>0.4099186360836029</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8249344229698181</v>
+        <v>0.03940132632851601</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['works well']</t>
+          <t>['really need additional suction', 'get anything done', 'battery quicker']</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>['asier', 'obtain']</t>
+          <t>['battery quicker', 'additional suction']</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[('asier', 0.29736558256021506), ('obtain', 0.29736558256021506)]</t>
+          <t>[('battery quicker', 0.04940384002065631), ('additional suction', 0.09700399286574239)]</t>
         </is>
       </c>
     </row>
@@ -849,34 +849,34 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Another draw was the mop attachment which I was not impressed with at all</t>
+          <t xml:space="preserve"> Luckily it has 3 different suction options</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9485604763031006</v>
+        <v>0.01360547170042992</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04819930717349052</v>
+        <v>0.3255250155925751</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003240282647311687</v>
+        <v>0.6608694791793823</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['mop attachment', 'another draw']</t>
+          <t>['3 different suction options']</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>['mop attachment', 'draw']</t>
+          <t>['suction options', 'Luckily']</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[('mop attachment', 0.02570861714399338), ('draw', 0.15831692877998726)]</t>
+          <t>[('suction options', 0.04940384002065631), ('Luckily', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -889,34 +889,34 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Makes life easier</t>
+          <t xml:space="preserve"> These could be asier to obtain </t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.005819395184516907</v>
+        <v>0.08475594967603683</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06784325838088989</v>
+        <v>0.7645460963249207</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9263373613357544</v>
+        <v>0.1506979912519455</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['makes life easier']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>['Makes life', 'life easier']</t>
+          <t>['obtain', 'asier']</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[('Makes life', 0.04940384002065631), ('life easier', 0.04940384002065631)]</t>
+          <t>[('obtain', 0.15831692877998726), ('asier', 0.29736558256021506)]</t>
         </is>
       </c>
     </row>
@@ -929,34 +929,34 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This machine is fantastic! I've never been excited about a vacuum cleaner before, but this thing is a joy to use anytime and anywhere, and it empties itself</t>
+          <t xml:space="preserve"> but works well once you get there</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.00544490572065115</v>
+        <v>0.008476589806377888</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01120788604021072</v>
+        <v>0.2395473271608353</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9833472371101379</v>
+        <v>0.7519761323928833</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['vacuum cleaner', 'use anytime']</t>
+          <t>['works well']</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>['fantastic', 'machine', 'vacuum cleaner']</t>
+          <t>['works']</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[('fantastic', 0.12363091320521931), ('machine', 0.2005079697193566), ('vacuum cleaner', 0.2766850298235749)]</t>
+          <t>[('works', 0.29736558256021506)]</t>
         </is>
       </c>
     </row>
@@ -969,34 +969,34 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I have no complaints and wish I had bought it sooner because I do not enjoy vacuuming so much</t>
+          <t xml:space="preserve"> Another draw was the mop attachment which I was not impressed with at all</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.6227284669876099</v>
+        <v>0.9485604763031006</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2829600274562836</v>
+        <v>0.04819922521710396</v>
       </c>
       <c r="F14" t="n">
-        <v>0.09431148320436478</v>
+        <v>0.003240276128053665</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['enjoy vacuuming']</t>
+          <t>['mop attachment', 'another draw']</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>['enjoy vacuuming', 'complaints']</t>
+          <t>['mop attachment', 'draw']</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[('enjoy vacuuming', 0.013527995261974615), ('complaints', 0.1155310835876123)]</t>
+          <t>[('mop attachment', 0.02570861714399338), ('draw', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -1009,21 +1009,21 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>I like it</t>
+          <t>Makes life easier</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.01096242666244507</v>
+        <v>0.005819408688694239</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1102626547217369</v>
+        <v>0.06784331798553467</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8787749409675598</v>
+        <v>0.9263372421264648</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['makes life easier']</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Makes life', 'life easier']</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('Makes life', 0.04940384002065631), ('life easier', 0.04940384002065631)]</t>
         </is>
       </c>
     </row>
@@ -1049,34 +1049,34 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I’ll start by saying, I’d never have bought myself this vacuum as it is pretty cost prohibitive</t>
+          <t xml:space="preserve"> This machine is fantastic! I've never been excited about a vacuum cleaner before, </t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.7676953673362732</v>
+        <v>0.006543591152876616</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2141862809658051</v>
+        <v>0.01476200390607119</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01811832748353481</v>
+        <v>0.9786943793296814</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['pretty cost prohibitive']</t>
+          <t>['vacuum cleaner']</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>['cost prohibitive', '’ll start']</t>
+          <t>['fantastic', 'machine']</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[('cost prohibitive', 0.015380821171891606), ('’ll start', 0.02570861714399338)]</t>
+          <t>[('fantastic', 0.2005079697193566), ('machine', 0.36073110501666333)]</t>
         </is>
       </c>
     </row>
@@ -1089,34 +1089,34 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> My mother bought it for me as a gift and I’ve been pleasantly surprised</t>
+          <t xml:space="preserve"> but this thing is a joy to use anytime and anywhere, and it empties itself</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.001393555314280093</v>
+        <v>0.01751674152910709</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01562498137354851</v>
+        <v>0.1018940061330795</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9829815030097961</v>
+        <v>0.8805893063545227</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['pleasantly surprised', 'mother bought']</t>
+          <t>['use anytime']</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>['pleasantly surprised', 'mother bought']</t>
+          <t>['thing', 'joy']</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[('pleasantly surprised', 0.04940384002065631), ('mother bought', 0.09700399286574239)]</t>
+          <t>[('thing', 0.15831692877998726), ('joy', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -1129,34 +1129,34 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It has better suction than I expected it would</t>
+          <t xml:space="preserve"> I have no complaints and wish I had bought it sooner because I do not enjoy vacuuming so much</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.03661122173070908</v>
+        <v>0.6227290630340576</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2584598064422607</v>
+        <v>0.2829597592353821</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7049289345741272</v>
+        <v>0.09431120753288269</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['better suction']</t>
+          <t>['enjoy vacuuming']</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>['suction', 'expected']</t>
+          <t>['enjoy vacuuming', 'complaints']</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[('suction', 0.15831692877998726), ('expected', 0.15831692877998726)]</t>
+          <t>[('enjoy vacuuming', 0.013527995261974615), ('complaints', 0.1155310835876123)]</t>
         </is>
       </c>
     </row>
@@ -1169,34 +1169,34 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And since it is lightweight, I grab it almost everyday instead of a broom for my tile floors and instead of my bulky vacuum for carpets</t>
+          <t>I like it</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.03480333834886551</v>
+        <v>0.01096240803599358</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6001420617103577</v>
+        <v>0.110262468457222</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3650545477867126</v>
+        <v>0.8787751197814941</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['almost everyday instead', 'tile floors', 'bulky vacuum']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>['tile floors', 'bulky vacuum', 'lightweight']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[('tile floors', 0.02570861714399338), ('bulky vacuum', 0.02570861714399338), ('lightweight', 0.09568045026443411)]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1209,34 +1209,34 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>By far, the most valuable feature is the fact that u don’t have to open that canister to empty it out</t>
+          <t xml:space="preserve"> I’ll start by saying, I’d never have bought myself this vacuum as it is pretty cost prohibitive</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.007152646780014038</v>
+        <v>0.7676954865455627</v>
       </c>
       <c r="E20" t="n">
-        <v>0.07423350214958191</v>
+        <v>0.2141861170530319</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9186138510704041</v>
+        <v>0.01811831444501877</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['valuable feature']</t>
+          <t>['pretty cost prohibitive']</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>['valuable feature', 'valuable', 'feature']</t>
+          <t>['cost prohibitive', '’ll start']</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[('valuable feature', 0.02570861714399338), ('valuable', 0.15831692877998726), ('feature', 0.15831692877998726)]</t>
+          <t>[('cost prohibitive', 0.015380821171891606), ('’ll start', 0.02570861714399338)]</t>
         </is>
       </c>
     </row>
@@ -1249,34 +1249,34 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I’ve had other stick vacuums in the past that, while emptying it, I usually felt that I was just spreading all the contents around again</t>
+          <t xml:space="preserve"> My mother bought it for me as a gift and I’ve been pleasantly surprised</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.4092040657997131</v>
+        <v>0.001393554033711553</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5383687019348145</v>
+        <v>0.01562498137354851</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05242720618844032</v>
+        <v>0.9829815030097961</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['usually felt', 'stick vacuums', 'contents around']</t>
+          <t>['pleasantly surprised', 'mother bought']</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>['stick vacuums', '’ve', 'stick']</t>
+          <t>['pleasantly surprised', 'mother bought']</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[('stick vacuums', 0.013527995261974615), ('’ve', 0.1155310835876123), ('stick', 0.1155310835876123)]</t>
+          <t>[('pleasantly surprised', 0.04940384002065631), ('mother bought', 0.09700399286574239)]</t>
         </is>
       </c>
     </row>
@@ -1289,34 +1289,34 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> When u dock this vacuum, all the contents r sucked into an internal bag</t>
+          <t xml:space="preserve"> It has better suction than I expected it would</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.641105055809021</v>
+        <v>0.03661132231354713</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3372036516666412</v>
+        <v>0.2584598064422607</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02169125899672508</v>
+        <v>0.7049288749694824</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['contents r sucked', 'u dock', 'internal bag']</t>
+          <t>['better suction']</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>['internal bag', 'vacuum']</t>
+          <t>['suction', 'expected']</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[('internal bag', 0.04940384002065631), ('vacuum', 0.15831692877998726)]</t>
+          <t>[('suction', 0.15831692877998726), ('expected', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -1329,34 +1329,34 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> My FAVORITE feature</t>
+          <t xml:space="preserve"> And since it is lightweight, I grab it almost everyday instead of a broom for my tile floors and instead of my bulky vacuum for carpets</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.003602611599490047</v>
+        <v>0.03480331599712372</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02941001951694489</v>
+        <v>0.600142240524292</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9669874310493469</v>
+        <v>0.3650544881820679</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['favorite feature']</t>
+          <t>['almost everyday instead', 'tile floors', 'bulky vacuum']</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>['FAVORITE feature', 'FAVORITE']</t>
+          <t>['tile floors', 'bulky vacuum', 'lightweight']</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[('FAVORITE feature', 0.023458380875189744), ('FAVORITE', 0.1447773057422032)]</t>
+          <t>[('tile floors', 0.02570861714399338), ('bulky vacuum', 0.02570861714399338), ('lightweight', 0.09568045026443411)]</t>
         </is>
       </c>
     </row>
@@ -1369,34 +1369,34 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>I have 2 greyhounds that seem to continuously shed fur</t>
+          <t>By far, the most valuable feature is the fact that u don’t have to open that canister to empty it out</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.3777984380722046</v>
+        <v>0.007152608130127192</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5815043449401855</v>
+        <v>0.07423321902751923</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04069721698760986</v>
+        <v>0.9186141490936279</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['continuously shed fur', '2 greyhounds']</t>
+          <t>['valuable feature']</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>['shed fur', 'continuously shed']</t>
+          <t>['valuable feature', 'valuable', 'feature']</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[('shed fur', 0.04940384002065631), ('continuously shed', 0.09700399286574239)]</t>
+          <t>[('valuable feature', 0.02570861714399338), ('valuable', 0.15831692877998726), ('feature', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -1409,34 +1409,34 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So the ability to grab this vacuum rather push the fur around with a broom is much better</t>
+          <t xml:space="preserve"> I’ve had other stick vacuums in the past that, while emptying it, I usually felt that I was just spreading all the contents around again</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.07019871473312378</v>
+        <v>0.4092042446136475</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4402828514575958</v>
+        <v>0.5383687019348145</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4895184338092804</v>
+        <v>0.05242707580327988</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['vacuum rather push', 'much better', 'fur around']</t>
+          <t>['usually felt', 'stick vacuums', 'contents around']</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>['ability', 'grab']</t>
+          <t>['stick vacuums', '’ve', 'stick']</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[('ability', 0.15831692877998726), ('grab', 0.15831692877998726)]</t>
+          <t>[('stick vacuums', 0.013527995261974615), ('’ve', 0.1155310835876123), ('stick', 0.1155310835876123)]</t>
         </is>
       </c>
     </row>
@@ -1449,34 +1449,34 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>I’ve never tried the mop feature as it seems sort of pointless to me…which is maybe why this thing is priced so high</t>
+          <t xml:space="preserve"> When u dock this vacuum, all the contents r sucked into an internal bag</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.823015034198761</v>
+        <v>0.6411051750183105</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1604757905006409</v>
+        <v>0.3372035920619965</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01650914177298546</v>
+        <v>0.02169122919440269</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['seems sort', 'never tried', 'mop feature']</t>
+          <t>['contents r sucked', 'u dock', 'internal bag']</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>['mop feature', 'high', '’ve']</t>
+          <t>['internal bag', 'vacuum']</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[('mop feature', 0.02570861714399338), ('high', 0.09568045026443411), ('’ve', 0.15831692877998726)]</t>
+          <t>[('internal bag', 0.04940384002065631), ('vacuum', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -1489,34 +1489,34 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Like I said, I would never pay $1000 for a vacuum… but I LOVE the self-emptying feature… and it’s suction power will surprise!</t>
+          <t xml:space="preserve"> My FAVORITE feature</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.02840100601315498</v>
+        <v>0.003602611366659403</v>
       </c>
       <c r="E27" t="n">
-        <v>0.09055680781602859</v>
+        <v>0.02941003069281578</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8810421824455261</v>
+        <v>0.9669874310493469</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['emptying feature …', 'would never pay', 'vacuum …', 'suction power']</t>
+          <t>['favorite feature']</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>['self-emptying feature', 'suction power', 'LOVE']</t>
+          <t>['FAVORITE feature', 'FAVORITE']</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[('self-emptying feature', 0.00899321792126428), ('suction power', 0.013527995261974615), ('LOVE', 0.06650965107397505)]</t>
+          <t>[('FAVORITE feature', 0.023458380875189744), ('FAVORITE', 0.1447773057422032)]</t>
         </is>
       </c>
     </row>
@@ -1529,34 +1529,34 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>I really liked it, but</t>
+          <t>I have 2 greyhounds that seem to continuously shed fur</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.0136397322639823</v>
+        <v>0.3777987360954285</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1021296009421349</v>
+        <v>0.5815039873123169</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8842306733131409</v>
+        <v>0.04069726541638374</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['really liked']</t>
+          <t>['continuously shed fur', '2 greyhounds']</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['shed fur', 'continuously shed']</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('shed fur', 0.04940384002065631), ('continuously shed', 0.09700399286574239)]</t>
         </is>
       </c>
     </row>
@@ -1569,34 +1569,34 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I really liked it, but the base of the tower was cracked, and I had to send it back!  I tried everything except the wet mop</t>
+          <t xml:space="preserve"> So the ability to grab this vacuum rather push the fur around with a broom is much better</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.2530137896537781</v>
+        <v>0.07019852846860886</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3819791674613953</v>
+        <v>0.4402825832366943</v>
       </c>
       <c r="F29" t="n">
-        <v>0.365007072687149</v>
+        <v>0.489518940448761</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['tried everything except', 'wet mop', 'really liked']</t>
+          <t>['vacuum rather push', 'much better', 'fur around']</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>['cracked', 'back', 'wet mop']</t>
+          <t>['ability', 'grab']</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[('cracked', 0.10028582371075691), ('back', 0.10028582371075691), ('wet mop', 0.11755105063023073)]</t>
+          <t>[('ability', 0.15831692877998726), ('grab', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -1609,34 +1609,34 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  I really didn't expect to get much up, because I vacuumed last week (only 2 clean freaks in the house)</t>
+          <t>I’ve never tried the mop feature as it seems sort of pointless to me…which is maybe why this thing is priced so high</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.5954091548919678</v>
+        <v>0.8230149745941162</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3173324465751648</v>
+        <v>0.160475879907608</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08725836873054504</v>
+        <v>0.01650915294885635</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['vacuumed last week', '2 clean freaks', 'get much']</t>
+          <t>['seems sort', 'never tried', 'mop feature']</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>['clean freaks', 'week', 'clean']</t>
+          <t>['mop feature', 'high', '’ve']</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[('clean freaks', 0.015380821171891606), ('week', 0.09568045026443411), ('clean', 0.09568045026443411)]</t>
+          <t>[('mop feature', 0.02570861714399338), ('high', 0.09568045026443411), ('’ve', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -1649,34 +1649,34 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Much to my surprise, it pulled up a lot of stuff!  It was easy to unpack</t>
+          <t xml:space="preserve">Like I said, I would never pay $1000 for a vacuum… </t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.01009055133908987</v>
+        <v>0.6577373743057251</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08423341810703278</v>
+        <v>0.3095732629299164</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9056760668754578</v>
+        <v>0.03268930688500404</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['would never pay', 'vacuum …']</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>['surprise', 'stuff']</t>
+          <t>['pay', 'vacuum']</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[('surprise', 0.12363091320521931), ('stuff', 0.12363091320521931)]</t>
+          <t>[('pay', 0.09568045026443411), ('vacuum', 0.09568045026443411)]</t>
         </is>
       </c>
     </row>
@@ -1689,34 +1689,34 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  The tower houses all the tools</t>
+          <t xml:space="preserve"> but I LOVE the self-emptying feature… and it’s suction power will surprise!</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.2508431673049927</v>
+        <v>0.002601710613816977</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6853864789009094</v>
+        <v>0.02383077517151833</v>
       </c>
       <c r="F32" t="n">
-        <v>0.06377042084932327</v>
+        <v>0.9735674858093262</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['tower houses']</t>
+          <t>['emptying feature …', 'suction power']</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>['tower houses', 'tools']</t>
+          <t>['self-emptying feature', 'suction power']</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>[('tower houses', 0.02570861714399338), ('tools', 0.09568045026443411)]</t>
+          <t>[('self-emptying feature', 0.04940384002065631), ('suction power', 0.09700399286574239)]</t>
         </is>
       </c>
     </row>
@@ -1729,34 +1729,34 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  The cleaning function worked great</t>
+          <t xml:space="preserve">I really liked it, </t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.004103223793208599</v>
+        <v>0.002149810781702399</v>
       </c>
       <c r="E33" t="n">
-        <v>0.04224938526749611</v>
+        <v>0.01908627152442932</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9536474347114563</v>
+        <v>0.9787639379501343</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['cleaning function worked great']</t>
+          <t>['really liked']</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>['worked great', 'cleaning function']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>[('worked great', 0.04940384002065631), ('cleaning function', 0.09700399286574239)]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1769,17 +1769,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  It emptied all the dirt</t>
+          <t xml:space="preserve"> but</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.2256955206394196</v>
+        <v>0.2737897336483002</v>
       </c>
       <c r="E34" t="n">
-        <v>0.59450364112854</v>
+        <v>0.5502526164054871</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1798008978366852</v>
+        <v>0.175957664847374</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1787,16 +1787,16 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>['dirt', 'emptied']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>[('dirt', 0.15831692877998726), ('emptied', 0.29736558256021506)]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1809,34 +1809,34 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  I read all the instructions, which I think is important for running it at it's best</t>
+          <t xml:space="preserve"> I really liked it, </t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.01157313957810402</v>
+        <v>0.002247169148176908</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1969117373228073</v>
+        <v>0.02080010250210762</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7915151119232178</v>
+        <v>0.9769527912139893</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
+          <t>['really liked']</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H35" t="n">
-        <v>16</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>['instructions', 'read']</t>
-        </is>
-      </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>[('instructions', 0.09568045026443411), ('read', 0.15831692877998726)]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1849,34 +1849,34 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  I'll be ordering a new one</t>
+          <t xml:space="preserve"> but the base of the tower was cracked, and I had to send it back!  I tried everything except the wet mop</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.01293628662824631</v>
+        <v>0.7299193739891052</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4068599343299866</v>
+        <v>0.2381336241960526</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5802037715911865</v>
+        <v>0.03194697201251984</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['new one']</t>
+          <t>['tried everything except', 'wet mop']</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>['ordering']</t>
+          <t>['cracked', 'back', 'wet mop']</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>[('ordering', 0.29736558256021506)]</t>
+          <t>[('cracked', 0.10028582371075691), ('back', 0.10028582371075691), ('wet mop', 0.11755105063023073)]</t>
         </is>
       </c>
     </row>
@@ -1889,34 +1889,34 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  My only negatives are that the vacuum heads seem cheaply made for the money</t>
+          <t xml:space="preserve">  I really didn't expect to get much up, because I vacuumed last week (only 2 clean freaks in the house)</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.8186517953872681</v>
+        <v>0.595408022403717</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1630213558673859</v>
+        <v>0.3173331618309021</v>
       </c>
       <c r="F37" t="n">
-        <v>0.01832692883908749</v>
+        <v>0.08725878596305847</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['vacuum heads seem cheaply made']</t>
+          <t>['vacuumed last week', '2 clean freaks', 'get much']</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>['vacuum heads', 'cheaply made']</t>
+          <t>['clean freaks', 'week', 'clean']</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>[('vacuum heads', 0.02570861714399338), ('cheaply made', 0.02570861714399338)]</t>
+          <t>[('clean freaks', 0.015380821171891606), ('week', 0.09568045026443411), ('clean', 0.09568045026443411)]</t>
         </is>
       </c>
     </row>
@@ -1929,34 +1929,34 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  The plastic seems like it will break easily</t>
+          <t xml:space="preserve">  Much to my surprise, it pulled up a lot of stuff!  It was easy to unpack</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.6374694108963013</v>
+        <v>0.010090546682477</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3210856914520264</v>
+        <v>0.08423341810703278</v>
       </c>
       <c r="F38" t="n">
-        <v>0.04144490137696266</v>
+        <v>0.9056760668754578</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['plastic seems like', 'break easily']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>['break easily', 'easily']</t>
+          <t>['surprise', 'stuff']</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>[('break easily', 0.04940384002065631), ('easily', 0.15831692877998726)]</t>
+          <t>[('surprise', 0.12363091320521931), ('stuff', 0.12363091320521931)]</t>
         </is>
       </c>
     </row>
@@ -1969,34 +1969,34 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  The battery does run down quickly on power modes, and it did start feeling heavy by the time I was done vacuuming 3600 Sq Ft</t>
+          <t xml:space="preserve">  The tower houses all the tools</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.6786075830459595</v>
+        <v>0.2508431971073151</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2891694605350494</v>
+        <v>0.6853863596916199</v>
       </c>
       <c r="F39" t="n">
-        <v>0.032222930341959</v>
+        <v>0.06377049535512924</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['done vacuuming 3600 sq ft', 'start feeling heavy', 'power modes']</t>
+          <t>['tower houses']</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>['power modes', 'start feeling', 'feeling heavy']</t>
+          <t>['tower houses', 'tools']</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>[('power modes', 0.015380821171891606), ('start feeling', 0.02570861714399338), ('feeling heavy', 0.02570861714399338)]</t>
+          <t>[('tower houses', 0.02570861714399338), ('tools', 0.09568045026443411)]</t>
         </is>
       </c>
     </row>
@@ -2009,34 +2009,34 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>No Light</t>
+          <t xml:space="preserve">  The cleaning function worked great</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.1988704204559326</v>
+        <v>0.004103217739611864</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6921098232269287</v>
+        <v>0.04224935546517372</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1090197041630745</v>
+        <v>0.9536474347114563</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['cleaning function worked great']</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>['Light']</t>
+          <t>['worked great', 'cleaning function']</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>[('Light', 0.08596317751626563)]</t>
+          <t>[('worked great', 0.04940384002065631), ('cleaning function', 0.09700399286574239)]</t>
         </is>
       </c>
     </row>
@@ -2049,34 +2049,34 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Great vacuum, overpriced though</t>
+          <t xml:space="preserve">  It emptied all the dirt</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.1509084701538086</v>
+        <v>0.2256959974765778</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3274489343166351</v>
+        <v>0.5945034027099609</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5216426253318787</v>
+        <v>0.1798006743192673</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['overpriced though', 'great vacuum']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>['Great vacuum', 'Great']</t>
+          <t>['dirt', 'emptied']</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>[('Great vacuum', 0.02570861714399338), ('Great', 0.15831692877998726)]</t>
+          <t>[('dirt', 0.15831692877998726), ('emptied', 0.29736558256021506)]</t>
         </is>
       </c>
     </row>
@@ -2089,34 +2089,34 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Missing a front light is a huge miss</t>
+          <t xml:space="preserve">  I read all the instructions, which I think is important for running it at it's best</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.8775281310081482</v>
+        <v>0.01157317776232958</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1115589067339897</v>
+        <v>0.1969121098518372</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01091299671679735</v>
+        <v>0.7915147542953491</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['huge miss', 'front light']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>['huge miss', 'front light']</t>
+          <t>['instructions', 'read']</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>[('huge miss', 0.015380821171891606), ('front light', 0.02570861714399338)]</t>
+          <t>[('instructions', 0.09568045026443411), ('read', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -2129,34 +2129,34 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Expensive but with value - little update</t>
+          <t xml:space="preserve">  I'll be ordering a new one</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.03540337458252907</v>
+        <v>0.01293627638369799</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7513877749443054</v>
+        <v>0.4068600535392761</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2132088094949722</v>
+        <v>0.580203652381897</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['little update']</t>
+          <t>['new one']</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>['Expensive', 'update']</t>
+          <t>['ordering']</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>[('Expensive', 0.15831692877998726), ('update', 0.15831692877998726)]</t>
+          <t>[('ordering', 0.29736558256021506)]</t>
         </is>
       </c>
     </row>
@@ -2169,34 +2169,34 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We have gone through all kinds of vacuums, corded, cordless, and robot</t>
+          <t xml:space="preserve">  My only negatives are that the vacuum heads seem cheaply made for the money</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.05664435774087906</v>
+        <v>0.8186513781547546</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7829291224479675</v>
+        <v>0.1630216389894485</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1604264974594116</v>
+        <v>0.01832699030637741</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['vacuum heads seem cheaply made']</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>['corded', 'cordless']</t>
+          <t>['vacuum heads', 'cheaply made']</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>[('corded', 0.04491197687864554), ('cordless', 0.04491197687864554)]</t>
+          <t>[('vacuum heads', 0.02570861714399338), ('cheaply made', 0.02570861714399338)]</t>
         </is>
       </c>
     </row>
@@ -2209,34 +2209,34 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Still have a corded Dyson for deep, heavy cleaning</t>
+          <t xml:space="preserve">  The plastic seems like it will break easily</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.01291356049478054</v>
+        <v>0.6374700665473938</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7533918619155884</v>
+        <v>0.3210852146148682</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2336945980787277</v>
+        <v>0.0414448045194149</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['heavy cleaning', 'corded dyson']</t>
+          <t>['plastic seems like', 'break easily']</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>['heavy cleaning', 'corded Dyson']</t>
+          <t>['break easily', 'easily']</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>[('heavy cleaning', 0.02570861714399338), ('corded Dyson', 0.04498862876540802)]</t>
+          <t>[('break easily', 0.04940384002065631), ('easily', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -2249,34 +2249,34 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Went through the latest Dyson V11, nice machine but connections on the stick were weak, started breaking</t>
+          <t xml:space="preserve">  The battery does run down quickly on power modes, and it did start feeling heavy by the time I was done vacuuming 3600 Sq Ft</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.5465530753135681</v>
+        <v>0.6786078810691833</v>
       </c>
       <c r="E46" t="n">
-        <v>0.344795435667038</v>
+        <v>0.2891692519187927</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1086515188217163</v>
+        <v>0.03222288191318512</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['latest dyson v11', 'started breaking', 'nice machine']</t>
+          <t>['done vacuuming 3600 sq ft', 'start feeling heavy', 'power modes']</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>['latest Dyson', 'started breaking']</t>
+          <t>['power modes', 'start feeling', 'feeling heavy']</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>[('latest Dyson', 0.009108237309423345), ('started breaking', 0.009239332327148086)]</t>
+          <t>[('power modes', 0.015380821171891606), ('start feeling', 0.02570861714399338), ('feeling heavy', 0.02570861714399338)]</t>
         </is>
       </c>
     </row>
@@ -2289,34 +2289,34 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Went to the new Shark, nice but loud</t>
+          <t>No Light</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.0182636808604002</v>
+        <v>0.1988705694675446</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1943977475166321</v>
+        <v>0.6921097040176392</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7873385548591614</v>
+        <v>0.1090197116136551</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['new shark']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>['Shark', 'nice']</t>
+          <t>['Light']</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>[('Shark', 0.08596317751626563), ('nice', 0.15831692877998726)]</t>
+          <t>[('Light', 0.08596317751626563)]</t>
         </is>
       </c>
     </row>
@@ -2329,34 +2329,34 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Worked well, a bit heavy</t>
+          <t xml:space="preserve"> Great vacuum, overpriced though</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.01027113012969494</v>
+        <v>0.1509084850549698</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2402729690074921</v>
+        <v>0.3274490833282471</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7494558691978455</v>
+        <v>0.5216424465179443</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['worked well', 'bit heavy']</t>
+          <t>['overpriced though', 'great vacuum']</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>['bit heavy', 'Worked']</t>
+          <t>['Great vacuum', 'Great']</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>[('bit heavy', 0.04940384002065631), ('Worked', 0.15831692877998726)]</t>
+          <t>[('Great vacuum', 0.02570861714399338), ('Great', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -2369,34 +2369,34 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Saw a commercial for this LG and checked it out</t>
+          <t xml:space="preserve"> Missing a front light is a huge miss</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.0143183171749115</v>
+        <v>0.8775284886360168</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6987917423248291</v>
+        <v>0.1115585789084435</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2868899703025818</v>
+        <v>0.01091295853257179</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['huge miss', 'front light']</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>['commercial', 'checked']</t>
+          <t>['huge miss', 'front light']</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>[('commercial', 0.29736558256021506), ('checked', 0.29736558256021506)]</t>
+          <t>[('huge miss', 0.015380821171891606), ('front light', 0.02570861714399338)]</t>
         </is>
       </c>
     </row>
@@ -2409,17 +2409,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> After all their TV and oven we have are exceptional</t>
+          <t xml:space="preserve">Expensive </t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.02027476951479912</v>
+        <v>0.2879480719566345</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2240577191114426</v>
+        <v>0.6119805574417114</v>
       </c>
       <c r="F50" t="n">
-        <v>0.755667507648468</v>
+        <v>0.1000713631510735</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2427,16 +2427,16 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>['exceptional', 'oven']</t>
+          <t>['Expensive']</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>[('exceptional', 0.15831692877998726), ('oven', 0.29736558256021506)]</t>
+          <t>[('Expensive', 0.04491197687864554)]</t>
         </is>
       </c>
     </row>
@@ -2449,34 +2449,34 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Turns out the vacuum is pretty nifty too</t>
+          <t xml:space="preserve"> but with value - little update</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.008176675066351891</v>
+        <v>0.02470635809004307</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1131840348243713</v>
+        <v>0.7283531427383423</v>
       </c>
       <c r="F51" t="n">
-        <v>0.878639280796051</v>
+        <v>0.2469404488801956</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['pretty nifty']</t>
+          <t>['little update']</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>['pretty nifty', 'Turns']</t>
+          <t>['update']</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>[('pretty nifty', 0.09700399286574239), ('Turns', 0.15831692877998726)]</t>
+          <t>[('update', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -2489,34 +2489,34 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah, expensive, but the technology and abilities make it worth it</t>
+          <t xml:space="preserve"> We have gone through all kinds of vacuums, corded, cordless, and robot</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.03294675052165985</v>
+        <v>0.05664461478590965</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2646448910236359</v>
+        <v>0.782929003238678</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7024083733558655</v>
+        <v>0.1604263186454773</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['abilities make']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>['abilities make', 'Yeah']</t>
+          <t>['corded', 'cordless']</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>[('abilities make', 0.02570861714399338), ('Yeah', 0.04491197687864554)]</t>
+          <t>[('corded', 0.04491197687864554), ('cordless', 0.04491197687864554)]</t>
         </is>
       </c>
     </row>
@@ -2529,34 +2529,34 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It has two batteries, so use time is extended a long time</t>
+          <t xml:space="preserve"> Still have a corded Dyson for deep, heavy cleaning</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.0721970871090889</v>
+        <v>0.01291356328874826</v>
       </c>
       <c r="E53" t="n">
-        <v>0.7001680135726929</v>
+        <v>0.7533916831016541</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2276349067687988</v>
+        <v>0.2336946725845337</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['use time', 'long time', 'two batteries']</t>
+          <t>['heavy cleaning', 'corded dyson']</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>['long time', 'batteries']</t>
+          <t>['heavy cleaning', 'corded Dyson']</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>[('long time', 0.0562460611896591), ('batteries', 0.11718348279991213)]</t>
+          <t>[('heavy cleaning', 0.02570861714399338), ('corded Dyson', 0.04498862876540802)]</t>
         </is>
       </c>
     </row>
@@ -2569,34 +2569,34 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It is very lightweight, surprisingly so</t>
+          <t xml:space="preserve"> Went through the latest Dyson V11, nice machine </t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.01463289652019739</v>
+        <v>0.001923508825711906</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1944518387317657</v>
+        <v>0.04522097855806351</v>
       </c>
       <c r="F54" t="n">
-        <v>0.7909152507781982</v>
+        <v>0.9528554677963257</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['latest dyson v11', 'nice machine']</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>['lightweight', 'surprisingly']</t>
+          <t>['nice machine', 'latest Dyson']</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>[('lightweight', 0.15831692877998726), ('surprisingly', 0.15831692877998726)]</t>
+          <t>[('nice machine', 0.02570861714399338), ('latest Dyson', 0.026233073037508336)]</t>
         </is>
       </c>
     </row>
@@ -2609,34 +2609,34 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The suction is strong, no problem picking up bird seed, popcorn, and other normal carpet detritus</t>
+          <t xml:space="preserve"> but connections on the stick were weak, started breaking</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.01496218238025904</v>
+        <v>0.7897866368293762</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2763365209102631</v>
+        <v>0.1996118873357773</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7087013125419617</v>
+        <v>0.01060143020004034</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['normal carpet detritus', 'problem picking', 'bird seed']</t>
+          <t>['started breaking']</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>['popcorn', 'bird seed']</t>
+          <t>['started breaking', 'weak']</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>[('popcorn', 0.04491197687864554), ('bird seed', 0.04940384002065631)]</t>
+          <t>[('started breaking', 0.02570861714399338), ('weak', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -2649,34 +2649,34 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No switch to push between carpet and flooring</t>
+          <t xml:space="preserve"> Went to the new Shark, nice </t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.1821157485246658</v>
+        <v>0.003504135645925999</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7623506784439087</v>
+        <v>0.05332150682806969</v>
       </c>
       <c r="F56" t="n">
-        <v>0.05553357303142548</v>
+        <v>0.9431743621826172</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['new shark']</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>['flooring', 'switch']</t>
+          <t>['nice', 'Shark']</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>[('flooring', 0.15831692877998726), ('switch', 0.29736558256021506)]</t>
+          <t>[('nice', 0.04491197687864554), ('Shark', 0.08596317751626563)]</t>
         </is>
       </c>
     </row>
@@ -2689,34 +2689,34 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The fringe on the carpet has not (yet) gotten caught up, even after pushing it up more than halfway</t>
+          <t xml:space="preserve"> but loud</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.4872340261936188</v>
+        <v>0.2566414475440979</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4761861860752106</v>
+        <v>0.6066645979881287</v>
       </c>
       <c r="F57" t="n">
-        <v>0.03657970204949379</v>
+        <v>0.1366939693689346</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['gotten caught']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>['halfway', 'fringe']</t>
+          <t>['loud']</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>[('halfway', 0.09568045026443411), ('fringe', 0.15831692877998726)]</t>
+          <t>[('loud', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -2729,34 +2729,34 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That actually straightens out the fringe</t>
+          <t xml:space="preserve"> Worked well, a bit heavy</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.009536712430417538</v>
+        <v>0.01027109567075968</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3531079888343811</v>
+        <v>0.2402729392051697</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6373553276062012</v>
+        <v>0.7494559288024902</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['actually straightens']</t>
+          <t>['worked well', 'bit heavy']</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>['fringe', 'straightens']</t>
+          <t>['bit heavy', 'Worked']</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>[('fringe', 0.15831692877998726), ('straightens', 0.29736558256021506)]</t>
+          <t>[('bit heavy', 0.04940384002065631), ('Worked', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -2769,17 +2769,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Easy to lift over because of the lack of weight</t>
+          <t xml:space="preserve"> Saw a commercial for this LG and checked it out</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.03111284412443638</v>
+        <v>0.01431829296052456</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4759357869625092</v>
+        <v>0.6987910866737366</v>
       </c>
       <c r="F59" t="n">
-        <v>0.4929514527320862</v>
+        <v>0.2868906259536743</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2791,12 +2791,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>['Easy', 'weight']</t>
+          <t>['commercial', 'checked']</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>[('Easy', 0.09568045026443411), ('weight', 0.09568045026443411)]</t>
+          <t>[('commercial', 0.29736558256021506), ('checked', 0.29736558256021506)]</t>
         </is>
       </c>
     </row>
@@ -2809,34 +2809,34 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So far haven’t needed to use the compact button, would take a lot of vacuuming to fill it up enough</t>
+          <t xml:space="preserve"> After all their TV and oven we have are exceptional</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.2467432767152786</v>
+        <v>0.0202748104929924</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5596798658370972</v>
+        <v>0.2240578234195709</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1935768127441406</v>
+        <v>0.7556673288345337</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['would take', 'compact button']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>['compact button', 'n’t needed', 'button']</t>
+          <t>['exceptional', 'oven']</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>[('compact button', 0.015380821171891606), ('n’t needed', 0.02570861714399338), ('button', 0.09568045026443411)]</t>
+          <t>[('exceptional', 0.15831692877998726), ('oven', 0.29736558256021506)]</t>
         </is>
       </c>
     </row>
@@ -2849,34 +2849,34 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Really nice to just stick it in the stand and have the dirt get automatically sucked out and into a bag</t>
+          <t xml:space="preserve"> Turns out the vacuum is pretty nifty too</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.08518847078084946</v>
+        <v>0.008176633156836033</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3631592988967896</v>
+        <v>0.1131835430860519</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5516522526741028</v>
+        <v>0.878639817237854</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['dirt get automatically sucked', 'really nice']</t>
+          <t>['pretty nifty']</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>['automatically sucked', 'bag', 'nice']</t>
+          <t>['pretty nifty', 'Turns']</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>[('automatically sucked', 0.02570861714399338), ('bag', 0.09568045026443411), ('nice', 0.15831692877998726)]</t>
+          <t>[('pretty nifty', 0.09700399286574239), ('Turns', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -2889,34 +2889,34 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Simple to put together, just put on the non-skid tape, set the unit on the base, plug it in, attach accessories</t>
+          <t xml:space="preserve"> Yeah, expensive, </t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.03915738314390182</v>
+        <v>0.5964546203613281</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6731478571891785</v>
+        <v>0.3472201526165009</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2876947224140167</v>
+        <v>0.05632526054978371</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['skid tape', 'put together', 'attach accessories']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>['attach accessories', 'non-skid tape', 'put']</t>
+          <t>['Yeah', 'expensive']</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>[('attach accessories', 0.007959679397760934), ('non-skid tape', 0.011891118324371971), ('put', 0.08706326953080504)]</t>
+          <t>[('Yeah', 0.04491197687864554), ('expensive', 0.04491197687864554)]</t>
         </is>
       </c>
     </row>
@@ -2929,34 +2929,34 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Just wish there was some storage for the floor mops</t>
+          <t xml:space="preserve"> but the technology and abilities make it worth it</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.1531708389520645</v>
+        <v>0.00739328982308507</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7370963096618652</v>
+        <v>0.1344296038150787</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1097328439354897</v>
+        <v>0.8581770658493042</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['floor mops']</t>
+          <t>['abilities make']</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>['floor mops', 'mops']</t>
+          <t>['abilities make', 'technology']</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>[('floor mops', 0.04940384002065631), ('mops', 0.15831692877998726)]</t>
+          <t>[('abilities make', 0.02570861714399338), ('technology', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -2969,34 +2969,34 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ended up velcroing the bag on the back of the stand</t>
+          <t xml:space="preserve"> It has two batteries, so use time is extended a long time</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.1764384359121323</v>
+        <v>0.07219678163528442</v>
       </c>
       <c r="E64" t="n">
-        <v>0.772382378578186</v>
+        <v>0.7001677751541138</v>
       </c>
       <c r="F64" t="n">
-        <v>0.05117911100387573</v>
+        <v>0.2276353985071182</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['use time', 'long time', 'two batteries']</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>['Ended', 'stand']</t>
+          <t>['long time', 'batteries']</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>[('Ended', 0.0771485953923296), ('stand', 0.0771485953923296)]</t>
+          <t>[('long time', 0.0562460611896591), ('batteries', 0.11718348279991213)]</t>
         </is>
       </c>
     </row>
@@ -3009,34 +3009,34 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Also need a place to stick extra bags so I don’t forget where they are</t>
+          <t xml:space="preserve"> It is very lightweight, surprisingly so</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.0838412269949913</v>
+        <v>0.01463280990719795</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7853641510009766</v>
+        <v>0.1944509595632553</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1307946890592575</v>
+        <v>0.7909162640571594</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['stick extra bags', 'also need']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>['stick extra', 'extra bags']</t>
+          <t>['lightweight', 'surprisingly']</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>[('stick extra', 0.09700399286574239), ('extra bags', 0.09700399286574239)]</t>
+          <t>[('lightweight', 0.15831692877998726), ('surprisingly', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -3049,34 +3049,34 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yep, really big complaints there</t>
+          <t xml:space="preserve"> The suction is strong, no problem picking up bird seed, popcorn, and other normal carpet detritus</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.757878839969635</v>
+        <v>0.01496222522109747</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2238962203264236</v>
+        <v>0.2763368189334869</v>
       </c>
       <c r="F66" t="n">
-        <v>0.01822487264871597</v>
+        <v>0.708700954914093</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['really big complaints']</t>
+          <t>['normal carpet detritus', 'problem picking', 'bird seed']</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>['Yep', 'big complaints']</t>
+          <t>['popcorn', 'bird seed']</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>[('Yep', 0.04491197687864554), ('big complaints', 0.09700399286574239)]</t>
+          <t>[('popcorn', 0.04491197687864554), ('bird seed', 0.04940384002065631)]</t>
         </is>
       </c>
     </row>
@@ -3089,21 +3089,21 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We believe this was well worth the cost</t>
+          <t xml:space="preserve"> No switch to push between carpet and flooring</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.006213189568370581</v>
+        <v>0.182115912437439</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1120167672634125</v>
+        <v>0.7623504400253296</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8817700147628784</v>
+        <v>0.05553359910845757</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['well worth']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -3111,12 +3111,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>['cost', 'worth']</t>
+          <t>['flooring', 'switch']</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>[('cost', 0.15831692877998726), ('worth', 0.29736558256021506)]</t>
+          <t>[('flooring', 0.15831692877998726), ('switch', 0.29736558256021506)]</t>
         </is>
       </c>
     </row>
@@ -3129,34 +3129,34 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Little update concerning fringe</t>
+          <t xml:space="preserve"> The fringe on the carpet has not (</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.02547482587397099</v>
+        <v>0.3146423101425171</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9126743674278259</v>
+        <v>0.653965175151825</v>
       </c>
       <c r="F68" t="n">
-        <v>0.06185084953904152</v>
+        <v>0.03139251843094826</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['little update concerning fringe']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>['fringe', 'update']</t>
+          <t>['fringe', 'carpet']</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>[('fringe', 0.15831692877998726), ('update', 0.29736558256021506)]</t>
+          <t>[('fringe', 0.15831692877998726), ('carpet', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -3169,34 +3169,34 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Purposely ran over the fringe numerous times from both sides</t>
+          <t xml:space="preserve"> yet) gotten caught up, even after pushing it up more than halfway</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.2126940339803696</v>
+        <v>0.01909902133047581</v>
       </c>
       <c r="E69" t="n">
-        <v>0.743263304233551</v>
+        <v>0.4891138672828674</v>
       </c>
       <c r="F69" t="n">
-        <v>0.04404266923666</v>
+        <v>0.4917870759963989</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['fringe numerous times', 'purposely ran']</t>
+          <t>['gotten caught']</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>['Purposely ran', 'fringe numerous']</t>
+          <t>['halfway', 'caught']</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>[('Purposely ran', 0.04940384002065631), ('fringe numerous', 0.09700399286574239)]</t>
+          <t>[('halfway', 0.09568045026443411), ('caught', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -3209,34 +3209,34 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Was cringing, expecting screaming noise an stoppage from jamming</t>
+          <t xml:space="preserve"> That actually straightens out the fringe</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.8697082996368408</v>
+        <v>0.009536697529256344</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1197350174188614</v>
+        <v>0.3531075417995453</v>
       </c>
       <c r="F70" t="n">
-        <v>0.01055667642503977</v>
+        <v>0.6373558044433594</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['expecting screaming noise']</t>
+          <t>['actually straightens']</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>['expecting screaming', 'screaming noise']</t>
+          <t>['fringe', 'straightens']</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>[('expecting screaming', 0.04940384002065631), ('screaming noise', 0.09700399286574239)]</t>
+          <t>[('fringe', 0.15831692877998726), ('straightens', 0.29736558256021506)]</t>
         </is>
       </c>
     </row>
@@ -3249,34 +3249,34 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nope, cringing unnecessarily, nothing happened</t>
+          <t xml:space="preserve"> Easy to lift over because of the lack of weight</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.6292510032653809</v>
+        <v>0.03111280687153339</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3237260580062866</v>
+        <v>0.4759357869625092</v>
       </c>
       <c r="F71" t="n">
-        <v>0.04702294990420341</v>
+        <v>0.4929514527320862</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['nothing happened', 'cringing unnecessarily']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>['cringing unnecessarily', 'Nope']</t>
+          <t>['Easy', 'weight']</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>[('cringing unnecessarily', 0.02570861714399338), ('Nope', 0.04491197687864554)]</t>
+          <t>[('Easy', 0.09568045026443411), ('weight', 0.09568045026443411)]</t>
         </is>
       </c>
     </row>
@@ -3289,34 +3289,34 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The fringe got sucked in, could see it kind of flapping on top of the brush, but no loud noise and no stopping or even slowing</t>
+          <t xml:space="preserve"> So far haven’t needed to use the compact </t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.4379480481147766</v>
+        <v>0.126674011349678</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5146276950836182</v>
+        <v>0.6832089424133301</v>
       </c>
       <c r="F72" t="n">
-        <v>0.04742423817515373</v>
+        <v>0.1901170611381531</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['fringe got sucked', 'loud noise', 'even slowing', 'could see']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>['loud noise', 'brush', 'slowing']</t>
+          <t>['n’t needed', 'compact']</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>[('loud noise', 0.02570861714399338), ('brush', 0.09568045026443411), ('slowing', 0.09568045026443411)]</t>
+          <t>[('n’t needed', 0.09700399286574239), ('compact', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -3329,34 +3329,34 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gee, impressed even more</t>
+          <t xml:space="preserve"> button, would take a lot of vacuuming to fill it up enough</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.003235697513446212</v>
+        <v>0.5382869839668274</v>
       </c>
       <c r="E73" t="n">
-        <v>0.06062614172697067</v>
+        <v>0.4053862988948822</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9361382126808167</v>
+        <v>0.05632675066590309</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['impressed even']</t>
+          <t>['would take']</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>['Gee', 'impressed']</t>
+          <t>['button', 'lot']</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>[('Gee', 0.04491197687864554), ('impressed', 0.15831692877998726)]</t>
+          <t>[('button', 0.04491197687864554), ('lot', 0.29736558256021506)]</t>
         </is>
       </c>
     </row>
@@ -3369,34 +3369,34 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Wife really likes it</t>
+          <t xml:space="preserve"> Really nice to just stick it in the stand and have the dirt get automatically sucked out and into a bag</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.006925588008016348</v>
+        <v>0.08518889546394348</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1582584232091904</v>
+        <v>0.3631601333618164</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8348159790039062</v>
+        <v>0.5516509413719177</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['wife really likes']</t>
+          <t>['dirt get automatically sucked', 'really nice']</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>['Wife']</t>
+          <t>['automatically sucked', 'bag', 'nice']</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>[('Wife', 0.15831692877998726)]</t>
+          <t>[('automatically sucked', 0.02570861714399338), ('bag', 0.09568045026443411), ('nice', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -3409,34 +3409,34 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This is our third cordless vac</t>
+          <t xml:space="preserve"> Simple to put together, just put on the non-skid tape, set the unit on the base, plug it in, attach accessories</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.01073968503624201</v>
+        <v>0.03915741294622421</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8459723591804504</v>
+        <v>0.6731477975845337</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1432879418134689</v>
+        <v>0.2876947522163391</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['third cordless vac']</t>
+          <t>['skid tape', 'put together', 'attach accessories']</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>['cordless vac', 'vac']</t>
+          <t>['attach accessories', 'non-skid tape', 'put']</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>[('cordless vac', 0.04940384002065631), ('vac', 0.15831692877998726)]</t>
+          <t>[('attach accessories', 0.007959679397760934), ('non-skid tape', 0.011891118324371971), ('put', 0.08706326953080504)]</t>
         </is>
       </c>
     </row>
@@ -3449,34 +3449,34 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It has better suction and the automatic dust extraction is a very nice feature</t>
+          <t xml:space="preserve"> Just wish there was some storage for the floor mops</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.002377035096287727</v>
+        <v>0.1531707346439362</v>
       </c>
       <c r="E76" t="n">
-        <v>0.02234409004449844</v>
+        <v>0.7370962500572205</v>
       </c>
       <c r="F76" t="n">
-        <v>0.975278913974762</v>
+        <v>0.1097330078482628</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['automatic dust extraction', 'nice feature', 'better suction']</t>
+          <t>['floor mops']</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>['nice feature', 'automatic dust']</t>
+          <t>['floor mops', 'mops']</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>[('nice feature', 0.04940384002065631), ('automatic dust', 0.09700399286574239)]</t>
+          <t>[('floor mops', 0.04940384002065631), ('mops', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -3489,17 +3489,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Great</t>
+          <t xml:space="preserve"> Ended up velcroing the bag on the back of the stand</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.03383325040340424</v>
+        <v>0.1764386296272278</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2671076357364655</v>
+        <v>0.7723823189735413</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6990591287612915</v>
+        <v>0.05117907747626305</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>['Great']</t>
+          <t>['Ended', 'stand']</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>[('Great', 0.04491197687864554)]</t>
+          <t>[('Ended', 0.0771485953923296), ('stand', 0.0771485953923296)]</t>
         </is>
       </c>
     </row>
@@ -3529,34 +3529,34 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>but not with pets</t>
+          <t xml:space="preserve"> Also need a place to stick extra bags so I don’t forget where they are</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.3281323313713074</v>
+        <v>0.08384110778570175</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6273972988128662</v>
+        <v>0.7853642702102661</v>
       </c>
       <c r="F78" t="n">
-        <v>0.04447031393647194</v>
+        <v>0.1307946443557739</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['stick extra bags', 'also need']</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>['pets']</t>
+          <t>['stick extra', 'extra bags']</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>[('pets', 0.15831692877998726)]</t>
+          <t>[('stick extra', 0.09700399286574239), ('extra bags', 0.09700399286574239)]</t>
         </is>
       </c>
     </row>
@@ -3569,34 +3569,34 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This vacuum is really a very good product</t>
+          <t xml:space="preserve"> Yep, really big complaints there</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.002470066770911217</v>
+        <v>0.7578791379928589</v>
       </c>
       <c r="E79" t="n">
-        <v>0.01289515476673841</v>
+        <v>0.2238960415124893</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9846348166465759</v>
+        <v>0.01822482794523239</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['good product']</t>
+          <t>['really big complaints']</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>['good product', 'product']</t>
+          <t>['Yep', 'big complaints']</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>[('good product', 0.04940384002065631), ('product', 0.15831692877998726)]</t>
+          <t>[('Yep', 0.04491197687864554), ('big complaints', 0.09700399286574239)]</t>
         </is>
       </c>
     </row>
@@ -3609,34 +3609,34 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It is light, does a good job on carpet and hard surfaces, and the auto-clean of the container is a nice feature</t>
+          <t xml:space="preserve"> We believe this was well worth the cost</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.001578981056809425</v>
+        <v>0.00621317932382226</v>
       </c>
       <c r="E80" t="n">
-        <v>0.01978420466184616</v>
+        <v>0.1120166555047035</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9786368608474731</v>
+        <v>0.8817701935768127</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['nice feature', 'hard surfaces', 'good job']</t>
+          <t>['well worth']</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>['hard surfaces', 'nice feature', 'good job']</t>
+          <t>['cost', 'worth']</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>[('hard surfaces', 0.015380821171891606), ('nice feature', 0.015380821171891606), ('good job', 0.02570861714399338)]</t>
+          <t>[('cost', 0.15831692877998726), ('worth', 0.29736558256021506)]</t>
         </is>
       </c>
     </row>
@@ -3649,34 +3649,34 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> However, we have a Labrador retriever, and this product unfortunately continually clogs on her fur</t>
+          <t>Little update concerning fringe</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.942366898059845</v>
+        <v>0.02547473832964897</v>
       </c>
       <c r="E81" t="n">
-        <v>0.05357814207673073</v>
+        <v>0.9126742482185364</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004054928664118052</v>
+        <v>0.06185102462768555</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['product unfortunately continually clogs', 'labrador retriever']</t>
+          <t>['little update concerning fringe']</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>['Labrador retriever', 'continually clogs']</t>
+          <t>['fringe', 'update']</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>[('Labrador retriever', 0.023458380875189744), ('continually clogs', 0.09700399286574239)]</t>
+          <t>[('fringe', 0.15831692877998726), ('update', 0.29736558256021506)]</t>
         </is>
       </c>
     </row>
@@ -3689,34 +3689,34 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Running the vacuum on max "turbo" helps reduce the clogging to a more manageable level - but you still have to periodically reach into the inlet and "hook" the fur out to unclog the device</t>
+          <t xml:space="preserve"> Purposely ran over the fringe numerous times from both sides</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.04970042407512665</v>
+        <v>0.2126935124397278</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6085141897201538</v>
+        <v>0.7432636022567749</v>
       </c>
       <c r="F82" t="n">
-        <v>0.341785341501236</v>
+        <v>0.04404287412762642</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['periodically reach', 'manageable level', 'helps reduce']</t>
+          <t>['fringe numerous times', 'purposely ran']</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>['manageable level', 'periodically reach', 'turbo']</t>
+          <t>['Purposely ran', 'fringe numerous']</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>[('manageable level', 0.005380746843605012), ('periodically reach', 0.00717258304785508), ('turbo', 0.04491197687864554)]</t>
+          <t>[('Purposely ran', 0.04940384002065631), ('fringe numerous', 0.09700399286574239)]</t>
         </is>
       </c>
     </row>
@@ -3729,21 +3729,21 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>The auto-clean feature also has trouble with pet fur</t>
+          <t xml:space="preserve"> Was cringing, expecting screaming noise an stoppage from jamming</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.8246879577636719</v>
+        <v>0.869708776473999</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1666491627693176</v>
+        <v>0.119734562933445</v>
       </c>
       <c r="F83" t="n">
-        <v>0.00866286363452673</v>
+        <v>0.01055662613362074</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['clean feature also', 'pet fur']</t>
+          <t>['expecting screaming noise']</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -3751,12 +3751,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>['pet fur', 'auto-clean feature']</t>
+          <t>['expecting screaming', 'screaming noise']</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>[('pet fur', 0.04940384002065631), ('auto-clean feature', 0.09700399286574239)]</t>
+          <t>[('expecting screaming', 0.04940384002065631), ('screaming noise', 0.09700399286574239)]</t>
         </is>
       </c>
     </row>
@@ -3769,34 +3769,34 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It either cannot remove it from the canister, or worse, it removes it from the canister but leaves it in the opening to the collection bag so it all falls on the floor when you remove the vacuum from the stand</t>
+          <t xml:space="preserve"> Nope, cringing unnecessarily, nothing happened</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.8103384375572205</v>
+        <v>0.6292508840560913</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1756397932767868</v>
+        <v>0.3237261772155762</v>
       </c>
       <c r="F84" t="n">
-        <v>0.01402174215763807</v>
+        <v>0.04702296480536461</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['either cannot remove', 'collection bag']</t>
+          <t>['nothing happened', 'cringing unnecessarily']</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>['collection bag', 'canister', 'remove']</t>
+          <t>['cringing unnecessarily', 'Nope']</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>[('collection bag', 0.00858839370797864), ('canister', 0.04264210829022151), ('remove', 0.0482470536946069)]</t>
+          <t>[('cringing unnecessarily', 0.02570861714399338), ('Nope', 0.04491197687864554)]</t>
         </is>
       </c>
     </row>
@@ -3809,34 +3809,34 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We have even found the canister lid left open after the clean cycle because all the fur didn't get out - and the remaining contents all fell on the floor</t>
+          <t xml:space="preserve"> The fringe got sucked in, could see it kind of flapping on top of the brush, </t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.5005043745040894</v>
+        <v>0.5067703127861023</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4498646855354309</v>
+        <v>0.463049978017807</v>
       </c>
       <c r="F85" t="n">
-        <v>0.04963096603751183</v>
+        <v>0.03017972595989704</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['canister lid left open', 'remaining contents', 'even found', 'clean cycle']</t>
+          <t>['fringe got sucked', 'could see']</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>['canister lid', 'lid left', 'left open']</t>
+          <t>['brush', 'fringe']</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>[('canister lid', 0.00717258304785508), ('lid left', 0.00717258304785508), ('left open', 0.00717258304785508)]</t>
+          <t>[('brush', 0.09568045026443411), ('fringe', 0.15831692877998726)]</t>
         </is>
       </c>
     </row>
@@ -3849,34 +3849,34 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>We like the vacuum enough to keep experimenting with it - it's just somewhat disappointing that it handles pet fur so poorly</t>
+          <t xml:space="preserve"> but no loud noise and no stopping or even slowing</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.8017566204071045</v>
+        <v>0.2428690940141678</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1738390326499939</v>
+        <v>0.6756120324134827</v>
       </c>
       <c r="F86" t="n">
-        <v>0.02440432086586952</v>
+        <v>0.08151886612176895</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['handles pet fur', 'vacuum enough', 'somewhat disappointing', 'keep experimenting']</t>
+          <t>['loud noise', 'even slowing']</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>['handles pet', 'pet fur', 'poorly']</t>
+          <t>['loud noise', 'slowing']</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>[('handles pet', 0.013527995261974615), ('pet fur', 0.013527995261974615), ('poorly', 0.0771485953923296)]</t>
+          <t>[('loud noise', 0.02570861714399338), ('slowing', 0.09568045026443411)]</t>
         </is>
       </c>
     </row>
@@ -3889,32 +3889,672 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Gee, impressed even more</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0.003235703567042947</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.06062619388103485</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.9361380934715271</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>['impressed even']</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['Gee', 'impressed']</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>[('Gee', 0.04491197687864554), ('impressed', 0.15831692877998726)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Wife really likes it</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0.006925575900822878</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.1582581996917725</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.8348162174224854</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>['wife really likes']</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['Wife']</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>[('Wife', 0.15831692877998726)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> This is our third cordless vac</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0.01073966175317764</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.8459721207618713</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.1432881653308868</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>['third cordless vac']</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['cordless vac', 'vac']</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>[('cordless vac', 0.04940384002065631), ('vac', 0.15831692877998726)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It has better suction and the automatic dust extraction is a very nice feature</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0.002377036027610302</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.02234410867094994</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.9752787947654724</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>['automatic dust extraction', 'nice feature', 'better suction']</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>14</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['nice feature', 'automatic dust']</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>[('nice feature', 0.04940384002065631), ('automatic dust', 0.09700399286574239)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Great</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0.03383322805166245</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.2671074867248535</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.6990593075752258</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['Great']</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>[('Great', 0.04491197687864554)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> but not with pets</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0.2966724336147308</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.6544235348701477</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.04890398681163788</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['pets']</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>[('pets', 0.15831692877998726)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> This vacuum is really a very good product</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0.002470060717314482</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.01289511099457741</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.9846348166465759</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>['good product']</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['good product', 'product']</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>[('good product', 0.04940384002065631), ('product', 0.15831692877998726)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It is light, does a good job on carpet and hard surfaces, and the auto-clean of the container is a nice feature</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0.001578980940394104</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.01978417858481407</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.9786368608474731</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>['nice feature', 'hard surfaces', 'good job']</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>22</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['hard surfaces', 'nice feature', 'good job']</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>[('hard surfaces', 0.015380821171891606), ('nice feature', 0.015380821171891606), ('good job', 0.02570861714399338)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> However, we have a Labrador retriever, and this product unfortunately continually clogs on her fur</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0.9423667788505554</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.05357818305492401</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.00405493238940835</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>['product unfortunately continually clogs', 'labrador retriever']</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>15</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['Labrador retriever', 'continually clogs']</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>[('Labrador retriever', 0.023458380875189744), ('continually clogs', 0.09700399286574239)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Running the vacuum on max "turbo" helps reduce the clogging to a more manageable level - </t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0.03122168406844139</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.5429133772850037</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.425864964723587</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>['manageable level', 'helps reduce']</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>16</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['manageable level', 'turbo']</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>[('manageable level', 0.015380821171891606), ('turbo', 0.04491197687864554)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> but you still have to periodically reach into the inlet and "hook" the fur out to unclog the device</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0.09018592536449432</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.8654711842536926</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.04434285685420036</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>['periodically reach']</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>19</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['periodically reach', 'hook']</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>[('periodically reach', 0.013527995261974615), ('hook', 0.04491197687864554)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>The auto-clean feature also has trouble with pet fur</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0.8246878981590271</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.1666492968797684</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.008662872016429901</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>['clean feature also', 'pet fur']</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['pet fur', 'auto-clean feature']</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>[('pet fur', 0.04940384002065631), ('auto-clean feature', 0.09700399286574239)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It either cannot remove it from the canister, or worse, it removes it from the canister </t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0.7487556934356689</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.2305841743946075</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.0206601694226265</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>['either cannot remove']</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>16</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['canister', 'worse']</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>[('canister', 0.03528421216774802), ('worse', 0.09100964857932636)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> but leaves it in the opening to the collection bag so it all falls on the floor when you remove the vacuum from the stand</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0.3381686806678772</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.620680570602417</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.0411507710814476</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>['collection bag']</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>25</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['collection bag', 'stand', 'leaves']</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>[('collection bag', 0.00717258304785508), ('stand', 0.06341998722529081), ('leaves', 0.08438900089923473)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We have even found the canister lid left open after the clean cycle because all the fur didn't get out - and the remaining contents all fell on the floor</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0.5005044937133789</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.4498646259307861</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.04963088780641556</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>['canister lid left open', 'remaining contents', 'even found', 'clean cycle']</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>30</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['canister lid', 'lid left', 'left open']</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>[('canister lid', 0.00717258304785508), ('lid left', 0.00717258304785508), ('left open', 0.00717258304785508)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>We like the vacuum enough to keep experimenting with it - it's just somewhat disappointing that it handles pet fur so poorly</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0.8017566204071045</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.1738390773534775</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.02440431527793407</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>['handles pet fur', 'vacuum enough', 'somewhat disappointing', 'keep experimenting']</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>22</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>['handles pet', 'pet fur', 'poorly']</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>[('handles pet', 0.013527995261974615), ('pet fur', 0.013527995261974615), ('poorly', 0.0771485953923296)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Rated it three stars because it is a good device, minus pet fur</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>0.003356066066771746</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.04048477113246918</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.9561591744422913</v>
-      </c>
-      <c r="G87" t="inlineStr">
+      <c r="D103" t="n">
+        <v>0.003356061642989516</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.040484718978405</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.956159234046936</v>
+      </c>
+      <c r="G103" t="inlineStr">
         <is>
           <t>['minus pet fur', 'three stars', 'good device']</t>
         </is>
       </c>
-      <c r="H87" t="n">
+      <c r="H103" t="n">
         <v>13</v>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>['good device', 'minus pet']</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>[('good device', 0.015380821171891606), ('minus pet', 0.015380821171891606)]</t>
         </is>
